--- a/Thesis/ModelForSensitivity/layoutSetup_baseCase3/Inputs/TRs/3600-0.8-60-9.xlsx
+++ b/Thesis/ModelForSensitivity/layoutSetup_baseCase3/Inputs/TRs/3600-0.8-60-9.xlsx
@@ -40,9 +40,6 @@
     <t>requestCost</t>
   </si>
   <si>
-    <t>E</t>
-  </si>
-  <si>
     <t>A,B</t>
   </si>
   <si>
@@ -50,6 +47,9 @@
   </si>
   <si>
     <t>C,D</t>
+  </si>
+  <si>
+    <t>E</t>
   </si>
 </sst>
 </file>
@@ -441,51 +441,51 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>170</v>
+        <v>13</v>
       </c>
       <c r="C2">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>170</v>
+        <v>13</v>
       </c>
       <c r="F2">
-        <v>392</v>
+        <v>124</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="B3">
-        <v>294</v>
+        <v>39</v>
       </c>
       <c r="C3">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3">
-        <v>294</v>
+        <v>39</v>
       </c>
       <c r="F3">
-        <v>521</v>
+        <v>152</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -493,25 +493,25 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="B4">
-        <v>341</v>
+        <v>91</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>341</v>
+        <v>91</v>
       </c>
       <c r="F4">
-        <v>510</v>
+        <v>231</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -519,103 +519,103 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="B5">
-        <v>430</v>
+        <v>93</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>430</v>
+        <v>93</v>
       </c>
       <c r="F5">
-        <v>656</v>
+        <v>236</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B6">
-        <v>468</v>
+        <v>111</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E6">
-        <v>468</v>
+        <v>111</v>
       </c>
       <c r="F6">
-        <v>637</v>
+        <v>244</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="B7">
-        <v>531</v>
+        <v>125</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="E7">
-        <v>531</v>
+        <v>125</v>
       </c>
       <c r="F7">
-        <v>750</v>
+        <v>1657</v>
       </c>
       <c r="G7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>536</v>
+        <v>249</v>
       </c>
       <c r="C8">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E8">
-        <v>536</v>
+        <v>249</v>
       </c>
       <c r="F8">
-        <v>832</v>
+        <v>360</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -623,22 +623,22 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>544</v>
+        <v>291</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E9">
-        <v>544</v>
+        <v>291</v>
       </c>
       <c r="F9">
-        <v>846</v>
+        <v>421</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -649,48 +649,48 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>326</v>
+      </c>
+      <c r="C10">
         <v>4</v>
       </c>
-      <c r="B10">
-        <v>626</v>
-      </c>
-      <c r="C10">
+      <c r="D10">
         <v>35</v>
       </c>
-      <c r="D10">
-        <v>8</v>
-      </c>
       <c r="E10">
-        <v>626</v>
+        <v>326</v>
       </c>
       <c r="F10">
-        <v>908</v>
+        <v>2086</v>
       </c>
       <c r="G10" t="s">
         <v>9</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>331</v>
+      </c>
+      <c r="C11">
+        <v>28</v>
+      </c>
+      <c r="D11">
         <v>25</v>
       </c>
-      <c r="B11">
-        <v>643</v>
-      </c>
-      <c r="C11">
-        <v>29</v>
-      </c>
-      <c r="D11">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>643</v>
+        <v>331</v>
       </c>
       <c r="F11">
-        <v>1623</v>
+        <v>481</v>
       </c>
       <c r="G11" t="s">
         <v>9</v>
@@ -701,204 +701,204 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B12">
-        <v>704</v>
+        <v>371</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D12">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E12">
-        <v>704</v>
+        <v>371</v>
       </c>
       <c r="F12">
-        <v>927</v>
+        <v>482</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B13">
-        <v>726</v>
+        <v>384</v>
       </c>
       <c r="C13">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D13">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>726</v>
+        <v>384</v>
       </c>
       <c r="F13">
-        <v>978</v>
+        <v>482</v>
       </c>
       <c r="G13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B14">
-        <v>768</v>
+        <v>405</v>
       </c>
       <c r="C14">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E14">
-        <v>768</v>
+        <v>405</v>
       </c>
       <c r="F14">
-        <v>1001</v>
+        <v>502</v>
       </c>
       <c r="G14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>416</v>
+      </c>
+      <c r="C15">
+        <v>13</v>
+      </c>
+      <c r="D15">
         <v>37</v>
       </c>
-      <c r="B15">
-        <v>854</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>854</v>
+        <v>416</v>
       </c>
       <c r="F15">
-        <v>1834</v>
+        <v>504</v>
       </c>
       <c r="G15" t="s">
         <v>9</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="B16">
-        <v>858</v>
+        <v>452</v>
       </c>
       <c r="C16">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D16">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E16">
-        <v>858</v>
+        <v>452</v>
       </c>
       <c r="F16">
-        <v>1087</v>
+        <v>576</v>
       </c>
       <c r="G16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B17">
-        <v>863</v>
+        <v>476</v>
       </c>
       <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>476</v>
+      </c>
+      <c r="F17">
+        <v>607</v>
+      </c>
+      <c r="G17" t="s">
         <v>9</v>
       </c>
-      <c r="D17">
-        <v>7</v>
-      </c>
-      <c r="E17">
-        <v>863</v>
-      </c>
-      <c r="F17">
-        <v>1049</v>
-      </c>
-      <c r="G17" t="s">
-        <v>11</v>
-      </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
-        <v>890</v>
+        <v>646</v>
       </c>
       <c r="C18">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D18">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E18">
-        <v>890</v>
+        <v>646</v>
       </c>
       <c r="F18">
-        <v>1118</v>
+        <v>788</v>
       </c>
       <c r="G18" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>901</v>
+        <v>725</v>
       </c>
       <c r="C19">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D19">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E19">
-        <v>901</v>
+        <v>725</v>
       </c>
       <c r="F19">
-        <v>1189</v>
+        <v>862</v>
       </c>
       <c r="G19" t="s">
         <v>11</v>
@@ -909,25 +909,25 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B20">
-        <v>956</v>
+        <v>784</v>
       </c>
       <c r="C20">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D20">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E20">
-        <v>956</v>
+        <v>784</v>
       </c>
       <c r="F20">
-        <v>1197</v>
+        <v>935</v>
       </c>
       <c r="G20" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -935,48 +935,48 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="B21">
-        <v>1022</v>
+        <v>855</v>
       </c>
       <c r="C21">
+        <v>21</v>
+      </c>
+      <c r="D21">
         <v>20</v>
       </c>
-      <c r="D21">
-        <v>29</v>
-      </c>
       <c r="E21">
-        <v>1022</v>
+        <v>855</v>
       </c>
       <c r="F21">
-        <v>1204</v>
+        <v>939</v>
       </c>
       <c r="G21" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B22">
-        <v>1033</v>
+        <v>869</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D22">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E22">
-        <v>1033</v>
+        <v>869</v>
       </c>
       <c r="F22">
-        <v>1301</v>
+        <v>947</v>
       </c>
       <c r="G22" t="s">
         <v>9</v>
@@ -987,22 +987,22 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B23">
-        <v>1262</v>
+        <v>953</v>
       </c>
       <c r="C23">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D23">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E23">
-        <v>1262</v>
+        <v>953</v>
       </c>
       <c r="F23">
-        <v>1500</v>
+        <v>1060</v>
       </c>
       <c r="G23" t="s">
         <v>9</v>
@@ -1013,22 +1013,22 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B24">
-        <v>1318</v>
+        <v>1138</v>
       </c>
       <c r="C24">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D24">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E24">
-        <v>1318</v>
+        <v>1138</v>
       </c>
       <c r="F24">
-        <v>1503</v>
+        <v>1223</v>
       </c>
       <c r="G24" t="s">
         <v>9</v>
@@ -1039,51 +1039,51 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>1343</v>
+        <v>1240</v>
       </c>
       <c r="C25">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D25">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="E25">
-        <v>1343</v>
+        <v>1240</v>
       </c>
       <c r="F25">
-        <v>2286</v>
+        <v>1334</v>
       </c>
       <c r="G25" t="s">
         <v>8</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="B26">
-        <v>1352</v>
+        <v>1260</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E26">
-        <v>1352</v>
+        <v>1260</v>
       </c>
       <c r="F26">
-        <v>1524</v>
+        <v>1367</v>
       </c>
       <c r="G26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -1091,25 +1091,25 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>1354</v>
+        <v>1302</v>
       </c>
       <c r="C27">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E27">
-        <v>1354</v>
+        <v>1302</v>
       </c>
       <c r="F27">
-        <v>1547</v>
+        <v>1405</v>
       </c>
       <c r="G27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -1117,22 +1117,22 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="B28">
-        <v>1388</v>
+        <v>1321</v>
       </c>
       <c r="C28">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D28">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E28">
-        <v>1388</v>
+        <v>1321</v>
       </c>
       <c r="F28">
-        <v>1573</v>
+        <v>1444</v>
       </c>
       <c r="G28" t="s">
         <v>11</v>
@@ -1143,25 +1143,25 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="B29">
-        <v>1389</v>
+        <v>1358</v>
       </c>
       <c r="C29">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D29">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E29">
-        <v>1389</v>
+        <v>1358</v>
       </c>
       <c r="F29">
-        <v>2403</v>
+        <v>1465</v>
       </c>
       <c r="G29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -1169,25 +1169,25 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B30">
-        <v>1417</v>
+        <v>1367</v>
       </c>
       <c r="C30">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E30">
-        <v>1417</v>
+        <v>1367</v>
       </c>
       <c r="F30">
-        <v>1651</v>
+        <v>1497</v>
       </c>
       <c r="G30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -1195,184 +1195,184 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="B31">
-        <v>1505</v>
+        <v>1428</v>
       </c>
       <c r="C31">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D31">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E31">
-        <v>1505</v>
+        <v>1428</v>
       </c>
       <c r="F31">
-        <v>1679</v>
+        <v>1538</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B32">
-        <v>1516</v>
+        <v>1525</v>
       </c>
       <c r="C32">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D32">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E32">
-        <v>1516</v>
+        <v>1525</v>
       </c>
       <c r="F32">
-        <v>1757</v>
+        <v>2522</v>
       </c>
       <c r="G32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B33">
-        <v>1522</v>
+        <v>1528</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D33">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E33">
-        <v>1522</v>
+        <v>1528</v>
       </c>
       <c r="F33">
-        <v>1791</v>
+        <v>1650</v>
       </c>
       <c r="G33" t="s">
         <v>11</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="B34">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
         <v>12</v>
       </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
       <c r="E34">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="F34">
-        <v>1753</v>
+        <v>3141</v>
       </c>
       <c r="G34" t="s">
         <v>8</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B35">
-        <v>1654</v>
+        <v>1723</v>
       </c>
       <c r="C35">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D35">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="E35">
-        <v>1654</v>
+        <v>1723</v>
       </c>
       <c r="F35">
-        <v>1918</v>
+        <v>1832</v>
       </c>
       <c r="G35" t="s">
         <v>8</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>1894</v>
+        <v>1728</v>
       </c>
       <c r="C36">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D36">
         <v>3</v>
       </c>
       <c r="E36">
-        <v>1894</v>
+        <v>1728</v>
       </c>
       <c r="F36">
-        <v>3102</v>
+        <v>1840</v>
       </c>
       <c r="G36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>1910</v>
+        <v>1875</v>
       </c>
       <c r="C37">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E37">
-        <v>1910</v>
+        <v>1875</v>
       </c>
       <c r="F37">
-        <v>3661</v>
+        <v>1988</v>
       </c>
       <c r="G37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,22 +1380,22 @@
         <v>30</v>
       </c>
       <c r="B38">
-        <v>2041</v>
+        <v>1955</v>
       </c>
       <c r="C38">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D38">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E38">
-        <v>2041</v>
+        <v>1955</v>
       </c>
       <c r="F38">
-        <v>2337</v>
+        <v>2085</v>
       </c>
       <c r="G38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H38">
         <v>2</v>
@@ -1403,25 +1403,25 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B39">
-        <v>2068</v>
+        <v>1983</v>
       </c>
       <c r="C39">
         <v>28</v>
       </c>
       <c r="D39">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E39">
-        <v>2068</v>
+        <v>1983</v>
       </c>
       <c r="F39">
-        <v>2237</v>
+        <v>2102</v>
       </c>
       <c r="G39" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -1429,181 +1429,181 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>2127</v>
+        <v>2031</v>
       </c>
       <c r="C40">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D40">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E40">
-        <v>2127</v>
+        <v>2031</v>
       </c>
       <c r="F40">
-        <v>2408</v>
+        <v>2111</v>
       </c>
       <c r="G40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B41">
-        <v>2127</v>
+        <v>2171</v>
       </c>
       <c r="C41">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="D41">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E41">
-        <v>2127</v>
+        <v>2171</v>
       </c>
       <c r="F41">
-        <v>2299</v>
+        <v>2255</v>
       </c>
       <c r="G41" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B42">
-        <v>2227</v>
+        <v>2233</v>
       </c>
       <c r="C42">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D42">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E42">
-        <v>2227</v>
+        <v>2233</v>
       </c>
       <c r="F42">
-        <v>2510</v>
+        <v>2346</v>
       </c>
       <c r="G42" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B43">
-        <v>2240</v>
+        <v>2253</v>
       </c>
       <c r="C43">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="D43">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="E43">
-        <v>2240</v>
+        <v>2253</v>
       </c>
       <c r="F43">
-        <v>2413</v>
+        <v>2337</v>
       </c>
       <c r="G43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>2592</v>
+        <v>2280</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D44">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E44">
-        <v>2592</v>
+        <v>2280</v>
       </c>
       <c r="F44">
-        <v>2773</v>
+        <v>2377</v>
       </c>
       <c r="G44" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B45">
-        <v>2630</v>
+        <v>2401</v>
       </c>
       <c r="C45">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D45">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E45">
-        <v>2630</v>
+        <v>2401</v>
       </c>
       <c r="F45">
-        <v>2810</v>
+        <v>2532</v>
       </c>
       <c r="G45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>2662</v>
+        <v>2592</v>
       </c>
       <c r="C46">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D46">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="E46">
-        <v>2662</v>
+        <v>2592</v>
       </c>
       <c r="F46">
-        <v>2891</v>
+        <v>2738</v>
       </c>
       <c r="G46" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -1611,22 +1611,22 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>2888</v>
+        <v>2792</v>
       </c>
       <c r="C47">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D47">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E47">
-        <v>2888</v>
+        <v>2792</v>
       </c>
       <c r="F47">
-        <v>3087</v>
+        <v>2869</v>
       </c>
       <c r="G47" t="s">
         <v>11</v>
@@ -1637,129 +1637,129 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B48">
-        <v>2901</v>
+        <v>2800</v>
       </c>
       <c r="C48">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D48">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E48">
-        <v>2901</v>
+        <v>2800</v>
       </c>
       <c r="F48">
-        <v>3124</v>
+        <v>2898</v>
       </c>
       <c r="G48" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>2949</v>
+        <v>2823</v>
       </c>
       <c r="C49">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D49">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E49">
-        <v>2949</v>
+        <v>2823</v>
       </c>
       <c r="F49">
-        <v>3125</v>
+        <v>4660</v>
       </c>
       <c r="G49" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B50">
-        <v>2971</v>
+        <v>2877</v>
       </c>
       <c r="C50">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D50">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E50">
-        <v>2971</v>
+        <v>2877</v>
       </c>
       <c r="F50">
-        <v>3171</v>
+        <v>3000</v>
       </c>
       <c r="G50" t="s">
         <v>8</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B51">
-        <v>3038</v>
+        <v>2921</v>
       </c>
       <c r="C51">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="D51">
+        <v>40</v>
+      </c>
+      <c r="E51">
+        <v>2921</v>
+      </c>
+      <c r="F51">
+        <v>3015</v>
+      </c>
+      <c r="G51" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51">
         <v>3</v>
-      </c>
-      <c r="E51">
-        <v>3038</v>
-      </c>
-      <c r="F51">
-        <v>3247</v>
-      </c>
-      <c r="G51" t="s">
-        <v>9</v>
-      </c>
-      <c r="H51">
-        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52">
+        <v>59</v>
+      </c>
+      <c r="B52">
+        <v>2970</v>
+      </c>
+      <c r="C52">
         <v>41</v>
       </c>
-      <c r="B52">
-        <v>3052</v>
-      </c>
-      <c r="C52">
-        <v>31</v>
-      </c>
       <c r="D52">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E52">
-        <v>3052</v>
+        <v>2970</v>
       </c>
       <c r="F52">
-        <v>3229</v>
+        <v>3102</v>
       </c>
       <c r="G52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H52">
         <v>2</v>
@@ -1767,80 +1767,80 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B53">
-        <v>3116</v>
+        <v>3008</v>
       </c>
       <c r="C53">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D53">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E53">
-        <v>3116</v>
+        <v>3008</v>
       </c>
       <c r="F53">
-        <v>3338</v>
+        <v>3111</v>
       </c>
       <c r="G53" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="B54">
-        <v>3196</v>
+        <v>3135</v>
       </c>
       <c r="C54">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D54">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E54">
-        <v>3196</v>
+        <v>3135</v>
       </c>
       <c r="F54">
-        <v>3429</v>
+        <v>3224</v>
       </c>
       <c r="G54" t="s">
         <v>9</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B55">
-        <v>3229</v>
+        <v>3143</v>
       </c>
       <c r="C55">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D55">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E55">
-        <v>3229</v>
+        <v>3143</v>
       </c>
       <c r="F55">
-        <v>3433</v>
+        <v>3244</v>
       </c>
       <c r="G55" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,45 +1848,45 @@
         <v>40</v>
       </c>
       <c r="B56">
-        <v>3274</v>
+        <v>3211</v>
       </c>
       <c r="C56">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D56">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E56">
-        <v>3274</v>
+        <v>3211</v>
       </c>
       <c r="F56">
-        <v>4219</v>
+        <v>3317</v>
       </c>
       <c r="G56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B57">
-        <v>3342</v>
+        <v>3311</v>
       </c>
       <c r="C57">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D57">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E57">
-        <v>3342</v>
+        <v>3311</v>
       </c>
       <c r="F57">
-        <v>5058</v>
+        <v>4554</v>
       </c>
       <c r="G57" t="s">
         <v>8</v>
@@ -1897,25 +1897,25 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B58">
-        <v>3404</v>
+        <v>3317</v>
       </c>
       <c r="C58">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E58">
-        <v>3404</v>
+        <v>3317</v>
       </c>
       <c r="F58">
-        <v>3583</v>
+        <v>3403</v>
       </c>
       <c r="G58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -1923,22 +1923,22 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B59">
-        <v>3470</v>
+        <v>3429</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D59">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E59">
-        <v>3470</v>
+        <v>3429</v>
       </c>
       <c r="F59">
-        <v>3673</v>
+        <v>3521</v>
       </c>
       <c r="G59" t="s">
         <v>8</v>
@@ -1949,25 +1949,25 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B60">
-        <v>3577</v>
+        <v>3472</v>
       </c>
       <c r="C60">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D60">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="E60">
-        <v>3577</v>
+        <v>3472</v>
       </c>
       <c r="F60">
-        <v>5230</v>
+        <v>3596</v>
       </c>
       <c r="G60" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H60">
         <v>2</v>
@@ -1975,28 +1975,28 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B61">
-        <v>3592</v>
+        <v>3555</v>
       </c>
       <c r="C61">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D61">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E61">
-        <v>3592</v>
+        <v>3555</v>
       </c>
       <c r="F61">
-        <v>5234</v>
+        <v>4621</v>
       </c>
       <c r="G61" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
